--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF396AB-C019-4596-9598-7ADB75B3654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E951BE48-6889-4448-88F1-6067B756E47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B5D64D9F-E21B-44A4-8B72-CFB3F82DCF87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B5D64D9F-E21B-44A4-8B72-CFB3F82DCF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="439">
   <si>
     <t>APPLE iPhone 14 (Blue, 128 GB)</t>
   </si>
@@ -546,12 +547,6 @@
     <t>Studio Nexx - Light Green Cotton Blend Regular Fit Men's Jeans ( Pack of 1 )</t>
   </si>
   <si>
-    <t>IVOC - Charcoal Cotton Blend Regular Fit Men's Jeans ( Pack of 1 )</t>
-  </si>
-  <si>
-    <t>RAGZO - Dark Brown Denim Slim Fit Men's Jeans ( Pack of 1 )</t>
-  </si>
-  <si>
     <t>IVOC - Blue Cotton Blend Regular Fit Men's Jeans ( Pack of 1 )</t>
   </si>
   <si>
@@ -604,6 +599,753 @@
   </si>
   <si>
     <t>Rs. 649</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia, Plurinational State of</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo, the Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Holy See (Vatican City State)</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People’s Republic of</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People’s Democratic Republic</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Macedonia, the former Yugoslav Republic of</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestinian Territory, Occupied</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan, Province of China</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela, Bolivarian Republic of</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands, British</t>
+  </si>
+  <si>
+    <t>Virgin Islands, U.S.</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -1689,18 +2431,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660C86A2-8770-4F4A-8FB9-F73A72D9DF56}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="67.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.5703125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="68.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="68.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="68.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -1708,13 +2450,13 @@
         <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -1725,10 +2467,10 @@
         <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -1739,10 +2481,10 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1753,10 +2495,10 @@
         <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -1767,10 +2509,10 @@
         <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -1781,10 +2523,10 @@
         <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -1795,10 +2537,10 @@
         <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1809,10 +2551,10 @@
         <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -1823,10 +2565,10 @@
         <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -1837,10 +2579,10 @@
         <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -1851,10 +2593,10 @@
         <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -1865,10 +2607,10 @@
         <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -1876,13 +2618,13 @@
         <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -1893,10 +2635,10 @@
         <v>171</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -1907,10 +2649,10 @@
         <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -1918,13 +2660,13 @@
         <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -1935,10 +2677,10 @@
         <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -1946,13 +2688,13 @@
         <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -1963,10 +2705,10 @@
         <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -1974,10 +2716,3509 @@
         <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1068054D-0A3B-4C79-8865-7E5A342A4C54}">
+  <dimension ref="B1:E249"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
         <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" t="s">
+        <v>245</v>
+      </c>
+      <c r="E56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" t="s">
+        <v>260</v>
+      </c>
+      <c r="D71" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" t="s">
+        <v>264</v>
+      </c>
+      <c r="E75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" t="s">
+        <v>265</v>
+      </c>
+      <c r="E76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>267</v>
+      </c>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" t="s">
+        <v>267</v>
+      </c>
+      <c r="E78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" t="s">
+        <v>268</v>
+      </c>
+      <c r="E79" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>271</v>
+      </c>
+      <c r="C82" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" t="s">
+        <v>271</v>
+      </c>
+      <c r="E82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" t="s">
+        <v>272</v>
+      </c>
+      <c r="E83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" t="s">
+        <v>275</v>
+      </c>
+      <c r="E86" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" t="s">
+        <v>276</v>
+      </c>
+      <c r="E87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" t="s">
+        <v>277</v>
+      </c>
+      <c r="E88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" t="s">
+        <v>278</v>
+      </c>
+      <c r="D89" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" t="s">
+        <v>279</v>
+      </c>
+      <c r="D90" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91" t="s">
+        <v>280</v>
+      </c>
+      <c r="E91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" t="s">
+        <v>281</v>
+      </c>
+      <c r="E92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" t="s">
+        <v>282</v>
+      </c>
+      <c r="E93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" t="s">
+        <v>283</v>
+      </c>
+      <c r="D94" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" t="s">
+        <v>284</v>
+      </c>
+      <c r="E95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" t="s">
+        <v>285</v>
+      </c>
+      <c r="D96" t="s">
+        <v>285</v>
+      </c>
+      <c r="E96" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" t="s">
+        <v>286</v>
+      </c>
+      <c r="E97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" t="s">
+        <v>288</v>
+      </c>
+      <c r="D99" t="s">
+        <v>288</v>
+      </c>
+      <c r="E99" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" t="s">
+        <v>290</v>
+      </c>
+      <c r="E101" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" t="s">
+        <v>291</v>
+      </c>
+      <c r="D102" t="s">
+        <v>291</v>
+      </c>
+      <c r="E102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" t="s">
+        <v>292</v>
+      </c>
+      <c r="D103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E103" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" t="s">
+        <v>293</v>
+      </c>
+      <c r="D104" t="s">
+        <v>293</v>
+      </c>
+      <c r="E104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" t="s">
+        <v>294</v>
+      </c>
+      <c r="D105" t="s">
+        <v>294</v>
+      </c>
+      <c r="E105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s">
+        <v>295</v>
+      </c>
+      <c r="C106" t="s">
+        <v>295</v>
+      </c>
+      <c r="D106" t="s">
+        <v>295</v>
+      </c>
+      <c r="E106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s">
+        <v>296</v>
+      </c>
+      <c r="C107" t="s">
+        <v>296</v>
+      </c>
+      <c r="D107" t="s">
+        <v>296</v>
+      </c>
+      <c r="E107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>297</v>
+      </c>
+      <c r="C108" t="s">
+        <v>297</v>
+      </c>
+      <c r="D108" t="s">
+        <v>297</v>
+      </c>
+      <c r="E108" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
+        <v>298</v>
+      </c>
+      <c r="C109" t="s">
+        <v>298</v>
+      </c>
+      <c r="D109" t="s">
+        <v>298</v>
+      </c>
+      <c r="E109" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s">
+        <v>299</v>
+      </c>
+      <c r="C110" t="s">
+        <v>299</v>
+      </c>
+      <c r="D110" t="s">
+        <v>299</v>
+      </c>
+      <c r="E110" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" t="s">
+        <v>300</v>
+      </c>
+      <c r="D111" t="s">
+        <v>300</v>
+      </c>
+      <c r="E111" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" t="s">
+        <v>301</v>
+      </c>
+      <c r="D112" t="s">
+        <v>301</v>
+      </c>
+      <c r="E112" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s">
+        <v>302</v>
+      </c>
+      <c r="C113" t="s">
+        <v>302</v>
+      </c>
+      <c r="D113" t="s">
+        <v>302</v>
+      </c>
+      <c r="E113" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>303</v>
+      </c>
+      <c r="C114" t="s">
+        <v>303</v>
+      </c>
+      <c r="D114" t="s">
+        <v>303</v>
+      </c>
+      <c r="E114" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s">
+        <v>304</v>
+      </c>
+      <c r="C115" t="s">
+        <v>304</v>
+      </c>
+      <c r="D115" t="s">
+        <v>304</v>
+      </c>
+      <c r="E115" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s">
+        <v>305</v>
+      </c>
+      <c r="C116" t="s">
+        <v>305</v>
+      </c>
+      <c r="D116" t="s">
+        <v>305</v>
+      </c>
+      <c r="E116" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" t="s">
+        <v>306</v>
+      </c>
+      <c r="D117" t="s">
+        <v>306</v>
+      </c>
+      <c r="E117" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" t="s">
+        <v>307</v>
+      </c>
+      <c r="D118" t="s">
+        <v>307</v>
+      </c>
+      <c r="E118" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s">
+        <v>308</v>
+      </c>
+      <c r="C119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" t="s">
+        <v>308</v>
+      </c>
+      <c r="E119" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" t="s">
+        <v>309</v>
+      </c>
+      <c r="D120" t="s">
+        <v>309</v>
+      </c>
+      <c r="E120" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="s">
+        <v>310</v>
+      </c>
+      <c r="C121" t="s">
+        <v>310</v>
+      </c>
+      <c r="D121" t="s">
+        <v>310</v>
+      </c>
+      <c r="E121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="s">
+        <v>311</v>
+      </c>
+      <c r="C122" t="s">
+        <v>311</v>
+      </c>
+      <c r="D122" t="s">
+        <v>311</v>
+      </c>
+      <c r="E122" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="s">
+        <v>312</v>
+      </c>
+      <c r="C123" t="s">
+        <v>312</v>
+      </c>
+      <c r="D123" t="s">
+        <v>312</v>
+      </c>
+      <c r="E123" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="s">
+        <v>313</v>
+      </c>
+      <c r="C124" t="s">
+        <v>313</v>
+      </c>
+      <c r="D124" t="s">
+        <v>313</v>
+      </c>
+      <c r="E124" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="s">
+        <v>314</v>
+      </c>
+      <c r="C125" t="s">
+        <v>314</v>
+      </c>
+      <c r="D125" t="s">
+        <v>314</v>
+      </c>
+      <c r="E125" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="s">
+        <v>315</v>
+      </c>
+      <c r="C126" t="s">
+        <v>315</v>
+      </c>
+      <c r="D126" t="s">
+        <v>315</v>
+      </c>
+      <c r="E126" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="s">
+        <v>316</v>
+      </c>
+      <c r="C127" t="s">
+        <v>316</v>
+      </c>
+      <c r="D127" t="s">
+        <v>316</v>
+      </c>
+      <c r="E127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" t="s">
+        <v>317</v>
+      </c>
+      <c r="D128" t="s">
+        <v>317</v>
+      </c>
+      <c r="E128" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="s">
+        <v>318</v>
+      </c>
+      <c r="C129" t="s">
+        <v>318</v>
+      </c>
+      <c r="D129" t="s">
+        <v>318</v>
+      </c>
+      <c r="E129" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" t="s">
+        <v>319</v>
+      </c>
+      <c r="D130" t="s">
+        <v>319</v>
+      </c>
+      <c r="E130" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="s">
+        <v>320</v>
+      </c>
+      <c r="C131" t="s">
+        <v>320</v>
+      </c>
+      <c r="D131" t="s">
+        <v>320</v>
+      </c>
+      <c r="E131" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" t="s">
+        <v>321</v>
+      </c>
+      <c r="D132" t="s">
+        <v>321</v>
+      </c>
+      <c r="E132" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="s">
+        <v>322</v>
+      </c>
+      <c r="C133" t="s">
+        <v>322</v>
+      </c>
+      <c r="D133" t="s">
+        <v>322</v>
+      </c>
+      <c r="E133" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="s">
+        <v>323</v>
+      </c>
+      <c r="C134" t="s">
+        <v>323</v>
+      </c>
+      <c r="D134" t="s">
+        <v>323</v>
+      </c>
+      <c r="E134" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="s">
+        <v>324</v>
+      </c>
+      <c r="C135" t="s">
+        <v>324</v>
+      </c>
+      <c r="D135" t="s">
+        <v>324</v>
+      </c>
+      <c r="E135" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="s">
+        <v>325</v>
+      </c>
+      <c r="C136" t="s">
+        <v>325</v>
+      </c>
+      <c r="D136" t="s">
+        <v>325</v>
+      </c>
+      <c r="E136" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="s">
+        <v>326</v>
+      </c>
+      <c r="C137" t="s">
+        <v>326</v>
+      </c>
+      <c r="D137" t="s">
+        <v>326</v>
+      </c>
+      <c r="E137" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="s">
+        <v>327</v>
+      </c>
+      <c r="C138" t="s">
+        <v>327</v>
+      </c>
+      <c r="D138" t="s">
+        <v>327</v>
+      </c>
+      <c r="E138" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="s">
+        <v>328</v>
+      </c>
+      <c r="C139" t="s">
+        <v>328</v>
+      </c>
+      <c r="D139" t="s">
+        <v>328</v>
+      </c>
+      <c r="E139" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="s">
+        <v>329</v>
+      </c>
+      <c r="C140" t="s">
+        <v>329</v>
+      </c>
+      <c r="D140" t="s">
+        <v>329</v>
+      </c>
+      <c r="E140" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="s">
+        <v>330</v>
+      </c>
+      <c r="C141" t="s">
+        <v>330</v>
+      </c>
+      <c r="D141" t="s">
+        <v>330</v>
+      </c>
+      <c r="E141" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="s">
+        <v>331</v>
+      </c>
+      <c r="C142" t="s">
+        <v>331</v>
+      </c>
+      <c r="D142" t="s">
+        <v>331</v>
+      </c>
+      <c r="E142" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="s">
+        <v>332</v>
+      </c>
+      <c r="C143" t="s">
+        <v>332</v>
+      </c>
+      <c r="D143" t="s">
+        <v>332</v>
+      </c>
+      <c r="E143" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="s">
+        <v>333</v>
+      </c>
+      <c r="C144" t="s">
+        <v>333</v>
+      </c>
+      <c r="D144" t="s">
+        <v>333</v>
+      </c>
+      <c r="E144" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="s">
+        <v>334</v>
+      </c>
+      <c r="C145" t="s">
+        <v>334</v>
+      </c>
+      <c r="D145" t="s">
+        <v>334</v>
+      </c>
+      <c r="E145" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" t="s">
+        <v>335</v>
+      </c>
+      <c r="D146" t="s">
+        <v>335</v>
+      </c>
+      <c r="E146" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="s">
+        <v>336</v>
+      </c>
+      <c r="C147" t="s">
+        <v>336</v>
+      </c>
+      <c r="D147" t="s">
+        <v>336</v>
+      </c>
+      <c r="E147" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="s">
+        <v>337</v>
+      </c>
+      <c r="C148" t="s">
+        <v>337</v>
+      </c>
+      <c r="D148" t="s">
+        <v>337</v>
+      </c>
+      <c r="E148" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="s">
+        <v>338</v>
+      </c>
+      <c r="C149" t="s">
+        <v>338</v>
+      </c>
+      <c r="D149" t="s">
+        <v>338</v>
+      </c>
+      <c r="E149" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="s">
+        <v>339</v>
+      </c>
+      <c r="C150" t="s">
+        <v>339</v>
+      </c>
+      <c r="D150" t="s">
+        <v>339</v>
+      </c>
+      <c r="E150" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="s">
+        <v>340</v>
+      </c>
+      <c r="C151" t="s">
+        <v>340</v>
+      </c>
+      <c r="D151" t="s">
+        <v>340</v>
+      </c>
+      <c r="E151" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="s">
+        <v>341</v>
+      </c>
+      <c r="C152" t="s">
+        <v>341</v>
+      </c>
+      <c r="D152" t="s">
+        <v>341</v>
+      </c>
+      <c r="E152" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="s">
+        <v>342</v>
+      </c>
+      <c r="C153" t="s">
+        <v>342</v>
+      </c>
+      <c r="D153" t="s">
+        <v>342</v>
+      </c>
+      <c r="E153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="s">
+        <v>343</v>
+      </c>
+      <c r="C154" t="s">
+        <v>343</v>
+      </c>
+      <c r="D154" t="s">
+        <v>343</v>
+      </c>
+      <c r="E154" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="s">
+        <v>344</v>
+      </c>
+      <c r="C155" t="s">
+        <v>344</v>
+      </c>
+      <c r="D155" t="s">
+        <v>344</v>
+      </c>
+      <c r="E155" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="s">
+        <v>345</v>
+      </c>
+      <c r="C156" t="s">
+        <v>345</v>
+      </c>
+      <c r="D156" t="s">
+        <v>345</v>
+      </c>
+      <c r="E156" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="s">
+        <v>346</v>
+      </c>
+      <c r="C157" t="s">
+        <v>346</v>
+      </c>
+      <c r="D157" t="s">
+        <v>346</v>
+      </c>
+      <c r="E157" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="s">
+        <v>347</v>
+      </c>
+      <c r="C158" t="s">
+        <v>347</v>
+      </c>
+      <c r="D158" t="s">
+        <v>347</v>
+      </c>
+      <c r="E158" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="s">
+        <v>348</v>
+      </c>
+      <c r="C159" t="s">
+        <v>348</v>
+      </c>
+      <c r="D159" t="s">
+        <v>348</v>
+      </c>
+      <c r="E159" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="s">
+        <v>349</v>
+      </c>
+      <c r="C160" t="s">
+        <v>349</v>
+      </c>
+      <c r="D160" t="s">
+        <v>349</v>
+      </c>
+      <c r="E160" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" t="s">
+        <v>350</v>
+      </c>
+      <c r="D161" t="s">
+        <v>350</v>
+      </c>
+      <c r="E161" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="s">
+        <v>351</v>
+      </c>
+      <c r="C162" t="s">
+        <v>351</v>
+      </c>
+      <c r="D162" t="s">
+        <v>351</v>
+      </c>
+      <c r="E162" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="s">
+        <v>352</v>
+      </c>
+      <c r="C163" t="s">
+        <v>352</v>
+      </c>
+      <c r="D163" t="s">
+        <v>352</v>
+      </c>
+      <c r="E163" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" t="s">
+        <v>353</v>
+      </c>
+      <c r="D164" t="s">
+        <v>353</v>
+      </c>
+      <c r="E164" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" t="s">
+        <v>354</v>
+      </c>
+      <c r="D165" t="s">
+        <v>354</v>
+      </c>
+      <c r="E165" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="s">
+        <v>355</v>
+      </c>
+      <c r="C166" t="s">
+        <v>355</v>
+      </c>
+      <c r="D166" t="s">
+        <v>355</v>
+      </c>
+      <c r="E166" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="s">
+        <v>356</v>
+      </c>
+      <c r="C167" t="s">
+        <v>356</v>
+      </c>
+      <c r="D167" t="s">
+        <v>356</v>
+      </c>
+      <c r="E167" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="s">
+        <v>357</v>
+      </c>
+      <c r="C168" t="s">
+        <v>357</v>
+      </c>
+      <c r="D168" t="s">
+        <v>357</v>
+      </c>
+      <c r="E168" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="s">
+        <v>358</v>
+      </c>
+      <c r="C169" t="s">
+        <v>358</v>
+      </c>
+      <c r="D169" t="s">
+        <v>358</v>
+      </c>
+      <c r="E169" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="s">
+        <v>359</v>
+      </c>
+      <c r="C170" t="s">
+        <v>359</v>
+      </c>
+      <c r="D170" t="s">
+        <v>359</v>
+      </c>
+      <c r="E170" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="s">
+        <v>360</v>
+      </c>
+      <c r="C171" t="s">
+        <v>360</v>
+      </c>
+      <c r="D171" t="s">
+        <v>360</v>
+      </c>
+      <c r="E171" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="s">
+        <v>361</v>
+      </c>
+      <c r="C172" t="s">
+        <v>361</v>
+      </c>
+      <c r="D172" t="s">
+        <v>361</v>
+      </c>
+      <c r="E172" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="s">
+        <v>362</v>
+      </c>
+      <c r="C173" t="s">
+        <v>362</v>
+      </c>
+      <c r="D173" t="s">
+        <v>362</v>
+      </c>
+      <c r="E173" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="s">
+        <v>363</v>
+      </c>
+      <c r="C174" t="s">
+        <v>363</v>
+      </c>
+      <c r="D174" t="s">
+        <v>363</v>
+      </c>
+      <c r="E174" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="s">
+        <v>364</v>
+      </c>
+      <c r="C175" t="s">
+        <v>364</v>
+      </c>
+      <c r="D175" t="s">
+        <v>364</v>
+      </c>
+      <c r="E175" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="s">
+        <v>365</v>
+      </c>
+      <c r="C176" t="s">
+        <v>365</v>
+      </c>
+      <c r="D176" t="s">
+        <v>365</v>
+      </c>
+      <c r="E176" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="s">
+        <v>366</v>
+      </c>
+      <c r="C177" t="s">
+        <v>366</v>
+      </c>
+      <c r="D177" t="s">
+        <v>366</v>
+      </c>
+      <c r="E177" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="s">
+        <v>367</v>
+      </c>
+      <c r="C178" t="s">
+        <v>367</v>
+      </c>
+      <c r="D178" t="s">
+        <v>367</v>
+      </c>
+      <c r="E178" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="s">
+        <v>368</v>
+      </c>
+      <c r="C179" t="s">
+        <v>368</v>
+      </c>
+      <c r="D179" t="s">
+        <v>368</v>
+      </c>
+      <c r="E179" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" t="s">
+        <v>369</v>
+      </c>
+      <c r="D180" t="s">
+        <v>369</v>
+      </c>
+      <c r="E180" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="s">
+        <v>370</v>
+      </c>
+      <c r="C181" t="s">
+        <v>370</v>
+      </c>
+      <c r="D181" t="s">
+        <v>370</v>
+      </c>
+      <c r="E181" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="s">
+        <v>371</v>
+      </c>
+      <c r="C182" t="s">
+        <v>371</v>
+      </c>
+      <c r="D182" t="s">
+        <v>371</v>
+      </c>
+      <c r="E182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="s">
+        <v>372</v>
+      </c>
+      <c r="C183" t="s">
+        <v>372</v>
+      </c>
+      <c r="D183" t="s">
+        <v>372</v>
+      </c>
+      <c r="E183" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="s">
+        <v>373</v>
+      </c>
+      <c r="C184" t="s">
+        <v>373</v>
+      </c>
+      <c r="D184" t="s">
+        <v>373</v>
+      </c>
+      <c r="E184" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="s">
+        <v>374</v>
+      </c>
+      <c r="C185" t="s">
+        <v>374</v>
+      </c>
+      <c r="D185" t="s">
+        <v>374</v>
+      </c>
+      <c r="E185" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="s">
+        <v>375</v>
+      </c>
+      <c r="C186" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186" t="s">
+        <v>375</v>
+      </c>
+      <c r="E186" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" t="s">
+        <v>376</v>
+      </c>
+      <c r="D187" t="s">
+        <v>376</v>
+      </c>
+      <c r="E187" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" t="s">
+        <v>377</v>
+      </c>
+      <c r="D188" t="s">
+        <v>377</v>
+      </c>
+      <c r="E188" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="s">
+        <v>378</v>
+      </c>
+      <c r="C189" t="s">
+        <v>378</v>
+      </c>
+      <c r="D189" t="s">
+        <v>378</v>
+      </c>
+      <c r="E189" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+      <c r="C190" t="s">
+        <v>379</v>
+      </c>
+      <c r="D190" t="s">
+        <v>379</v>
+      </c>
+      <c r="E190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="s">
+        <v>380</v>
+      </c>
+      <c r="C191" t="s">
+        <v>380</v>
+      </c>
+      <c r="D191" t="s">
+        <v>380</v>
+      </c>
+      <c r="E191" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="s">
+        <v>381</v>
+      </c>
+      <c r="C192" t="s">
+        <v>381</v>
+      </c>
+      <c r="D192" t="s">
+        <v>381</v>
+      </c>
+      <c r="E192" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="s">
+        <v>382</v>
+      </c>
+      <c r="C193" t="s">
+        <v>382</v>
+      </c>
+      <c r="D193" t="s">
+        <v>382</v>
+      </c>
+      <c r="E193" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194" t="s">
+        <v>383</v>
+      </c>
+      <c r="D194" t="s">
+        <v>383</v>
+      </c>
+      <c r="E194" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195" t="s">
+        <v>384</v>
+      </c>
+      <c r="D195" t="s">
+        <v>384</v>
+      </c>
+      <c r="E195" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="s">
+        <v>385</v>
+      </c>
+      <c r="C196" t="s">
+        <v>385</v>
+      </c>
+      <c r="D196" t="s">
+        <v>385</v>
+      </c>
+      <c r="E196" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="s">
+        <v>386</v>
+      </c>
+      <c r="C197" t="s">
+        <v>386</v>
+      </c>
+      <c r="D197" t="s">
+        <v>386</v>
+      </c>
+      <c r="E197" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="s">
+        <v>387</v>
+      </c>
+      <c r="C198" t="s">
+        <v>387</v>
+      </c>
+      <c r="D198" t="s">
+        <v>387</v>
+      </c>
+      <c r="E198" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="s">
+        <v>388</v>
+      </c>
+      <c r="C199" t="s">
+        <v>388</v>
+      </c>
+      <c r="D199" t="s">
+        <v>388</v>
+      </c>
+      <c r="E199" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="s">
+        <v>389</v>
+      </c>
+      <c r="C200" t="s">
+        <v>389</v>
+      </c>
+      <c r="D200" t="s">
+        <v>389</v>
+      </c>
+      <c r="E200" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="s">
+        <v>390</v>
+      </c>
+      <c r="C201" t="s">
+        <v>390</v>
+      </c>
+      <c r="D201" t="s">
+        <v>390</v>
+      </c>
+      <c r="E201" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="s">
+        <v>391</v>
+      </c>
+      <c r="C202" t="s">
+        <v>391</v>
+      </c>
+      <c r="D202" t="s">
+        <v>391</v>
+      </c>
+      <c r="E202" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="s">
+        <v>392</v>
+      </c>
+      <c r="C203" t="s">
+        <v>392</v>
+      </c>
+      <c r="D203" t="s">
+        <v>392</v>
+      </c>
+      <c r="E203" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="s">
+        <v>393</v>
+      </c>
+      <c r="C204" t="s">
+        <v>393</v>
+      </c>
+      <c r="D204" t="s">
+        <v>393</v>
+      </c>
+      <c r="E204" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="s">
+        <v>394</v>
+      </c>
+      <c r="C205" t="s">
+        <v>394</v>
+      </c>
+      <c r="D205" t="s">
+        <v>394</v>
+      </c>
+      <c r="E205" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="s">
+        <v>395</v>
+      </c>
+      <c r="C206" t="s">
+        <v>395</v>
+      </c>
+      <c r="D206" t="s">
+        <v>395</v>
+      </c>
+      <c r="E206" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="s">
+        <v>396</v>
+      </c>
+      <c r="C207" t="s">
+        <v>396</v>
+      </c>
+      <c r="D207" t="s">
+        <v>396</v>
+      </c>
+      <c r="E207" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="s">
+        <v>397</v>
+      </c>
+      <c r="C208" t="s">
+        <v>397</v>
+      </c>
+      <c r="D208" t="s">
+        <v>397</v>
+      </c>
+      <c r="E208" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="s">
+        <v>398</v>
+      </c>
+      <c r="C209" t="s">
+        <v>398</v>
+      </c>
+      <c r="D209" t="s">
+        <v>398</v>
+      </c>
+      <c r="E209" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="s">
+        <v>399</v>
+      </c>
+      <c r="C210" t="s">
+        <v>399</v>
+      </c>
+      <c r="D210" t="s">
+        <v>399</v>
+      </c>
+      <c r="E210" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="s">
+        <v>400</v>
+      </c>
+      <c r="C211" t="s">
+        <v>400</v>
+      </c>
+      <c r="D211" t="s">
+        <v>400</v>
+      </c>
+      <c r="E211" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="s">
+        <v>401</v>
+      </c>
+      <c r="C212" t="s">
+        <v>401</v>
+      </c>
+      <c r="D212" t="s">
+        <v>401</v>
+      </c>
+      <c r="E212" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="s">
+        <v>402</v>
+      </c>
+      <c r="C213" t="s">
+        <v>402</v>
+      </c>
+      <c r="D213" t="s">
+        <v>402</v>
+      </c>
+      <c r="E213" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="s">
+        <v>403</v>
+      </c>
+      <c r="C214" t="s">
+        <v>403</v>
+      </c>
+      <c r="D214" t="s">
+        <v>403</v>
+      </c>
+      <c r="E214" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="s">
+        <v>404</v>
+      </c>
+      <c r="C215" t="s">
+        <v>404</v>
+      </c>
+      <c r="D215" t="s">
+        <v>404</v>
+      </c>
+      <c r="E215" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="s">
+        <v>405</v>
+      </c>
+      <c r="C216" t="s">
+        <v>405</v>
+      </c>
+      <c r="D216" t="s">
+        <v>405</v>
+      </c>
+      <c r="E216" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="s">
+        <v>406</v>
+      </c>
+      <c r="C217" t="s">
+        <v>406</v>
+      </c>
+      <c r="D217" t="s">
+        <v>406</v>
+      </c>
+      <c r="E217" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="s">
+        <v>407</v>
+      </c>
+      <c r="C218" t="s">
+        <v>407</v>
+      </c>
+      <c r="D218" t="s">
+        <v>407</v>
+      </c>
+      <c r="E218" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="s">
+        <v>408</v>
+      </c>
+      <c r="C219" t="s">
+        <v>408</v>
+      </c>
+      <c r="D219" t="s">
+        <v>408</v>
+      </c>
+      <c r="E219" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="s">
+        <v>409</v>
+      </c>
+      <c r="C220" t="s">
+        <v>409</v>
+      </c>
+      <c r="D220" t="s">
+        <v>409</v>
+      </c>
+      <c r="E220" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="s">
+        <v>410</v>
+      </c>
+      <c r="C221" t="s">
+        <v>410</v>
+      </c>
+      <c r="D221" t="s">
+        <v>410</v>
+      </c>
+      <c r="E221" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="s">
+        <v>411</v>
+      </c>
+      <c r="C222" t="s">
+        <v>411</v>
+      </c>
+      <c r="D222" t="s">
+        <v>411</v>
+      </c>
+      <c r="E222" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="s">
+        <v>412</v>
+      </c>
+      <c r="C223" t="s">
+        <v>412</v>
+      </c>
+      <c r="D223" t="s">
+        <v>412</v>
+      </c>
+      <c r="E223" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="s">
+        <v>413</v>
+      </c>
+      <c r="C224" t="s">
+        <v>413</v>
+      </c>
+      <c r="D224" t="s">
+        <v>413</v>
+      </c>
+      <c r="E224" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="s">
+        <v>414</v>
+      </c>
+      <c r="C225" t="s">
+        <v>414</v>
+      </c>
+      <c r="D225" t="s">
+        <v>414</v>
+      </c>
+      <c r="E225" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="s">
+        <v>415</v>
+      </c>
+      <c r="C226" t="s">
+        <v>415</v>
+      </c>
+      <c r="D226" t="s">
+        <v>415</v>
+      </c>
+      <c r="E226" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="s">
+        <v>416</v>
+      </c>
+      <c r="C227" t="s">
+        <v>416</v>
+      </c>
+      <c r="D227" t="s">
+        <v>416</v>
+      </c>
+      <c r="E227" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="s">
+        <v>417</v>
+      </c>
+      <c r="C228" t="s">
+        <v>417</v>
+      </c>
+      <c r="D228" t="s">
+        <v>417</v>
+      </c>
+      <c r="E228" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="s">
+        <v>418</v>
+      </c>
+      <c r="C229" t="s">
+        <v>418</v>
+      </c>
+      <c r="D229" t="s">
+        <v>418</v>
+      </c>
+      <c r="E229" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="s">
+        <v>419</v>
+      </c>
+      <c r="C230" t="s">
+        <v>419</v>
+      </c>
+      <c r="D230" t="s">
+        <v>419</v>
+      </c>
+      <c r="E230" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="s">
+        <v>420</v>
+      </c>
+      <c r="C231" t="s">
+        <v>420</v>
+      </c>
+      <c r="D231" t="s">
+        <v>420</v>
+      </c>
+      <c r="E231" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="s">
+        <v>421</v>
+      </c>
+      <c r="C232" t="s">
+        <v>421</v>
+      </c>
+      <c r="D232" t="s">
+        <v>421</v>
+      </c>
+      <c r="E232" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="s">
+        <v>422</v>
+      </c>
+      <c r="C233" t="s">
+        <v>422</v>
+      </c>
+      <c r="D233" t="s">
+        <v>422</v>
+      </c>
+      <c r="E233" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="s">
+        <v>423</v>
+      </c>
+      <c r="C234" t="s">
+        <v>423</v>
+      </c>
+      <c r="D234" t="s">
+        <v>423</v>
+      </c>
+      <c r="E234" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="s">
+        <v>424</v>
+      </c>
+      <c r="C235" t="s">
+        <v>424</v>
+      </c>
+      <c r="D235" t="s">
+        <v>424</v>
+      </c>
+      <c r="E235" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="s">
+        <v>425</v>
+      </c>
+      <c r="C236" t="s">
+        <v>425</v>
+      </c>
+      <c r="D236" t="s">
+        <v>425</v>
+      </c>
+      <c r="E236" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="s">
+        <v>426</v>
+      </c>
+      <c r="C237" t="s">
+        <v>426</v>
+      </c>
+      <c r="D237" t="s">
+        <v>426</v>
+      </c>
+      <c r="E237" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="s">
+        <v>427</v>
+      </c>
+      <c r="C238" t="s">
+        <v>427</v>
+      </c>
+      <c r="D238" t="s">
+        <v>427</v>
+      </c>
+      <c r="E238" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="s">
+        <v>428</v>
+      </c>
+      <c r="C239" t="s">
+        <v>428</v>
+      </c>
+      <c r="D239" t="s">
+        <v>428</v>
+      </c>
+      <c r="E239" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="s">
+        <v>429</v>
+      </c>
+      <c r="C240" t="s">
+        <v>429</v>
+      </c>
+      <c r="D240" t="s">
+        <v>429</v>
+      </c>
+      <c r="E240" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="s">
+        <v>430</v>
+      </c>
+      <c r="C241" t="s">
+        <v>430</v>
+      </c>
+      <c r="D241" t="s">
+        <v>430</v>
+      </c>
+      <c r="E241" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="s">
+        <v>431</v>
+      </c>
+      <c r="C242" t="s">
+        <v>431</v>
+      </c>
+      <c r="D242" t="s">
+        <v>431</v>
+      </c>
+      <c r="E242" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="s">
+        <v>432</v>
+      </c>
+      <c r="C243" t="s">
+        <v>432</v>
+      </c>
+      <c r="D243" t="s">
+        <v>432</v>
+      </c>
+      <c r="E243" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="s">
+        <v>433</v>
+      </c>
+      <c r="C244" t="s">
+        <v>433</v>
+      </c>
+      <c r="D244" t="s">
+        <v>433</v>
+      </c>
+      <c r="E244" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="s">
+        <v>434</v>
+      </c>
+      <c r="C245" t="s">
+        <v>434</v>
+      </c>
+      <c r="D245" t="s">
+        <v>434</v>
+      </c>
+      <c r="E245" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="s">
+        <v>435</v>
+      </c>
+      <c r="C246" t="s">
+        <v>435</v>
+      </c>
+      <c r="D246" t="s">
+        <v>435</v>
+      </c>
+      <c r="E246" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="s">
+        <v>436</v>
+      </c>
+      <c r="C247" t="s">
+        <v>436</v>
+      </c>
+      <c r="D247" t="s">
+        <v>436</v>
+      </c>
+      <c r="E247" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="s">
+        <v>437</v>
+      </c>
+      <c r="C248" t="s">
+        <v>437</v>
+      </c>
+      <c r="D248" t="s">
+        <v>437</v>
+      </c>
+      <c r="E248" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="s">
+        <v>438</v>
+      </c>
+      <c r="C249" t="s">
+        <v>438</v>
+      </c>
+      <c r="D249" t="s">
+        <v>438</v>
+      </c>
+      <c r="E249" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEEFD16-3308-4B4B-9707-D0B1F0000467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45C133-7004-4B7B-B6E0-12FA0A6AC965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{B5D64D9F-E21B-44A4-8B72-CFB3F82DCF87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{B5D64D9F-E21B-44A4-8B72-CFB3F82DCF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="519">
   <si>
     <t>APPLE iPhone 14 (Blue, 128 GB)</t>
   </si>
@@ -1477,13 +1478,123 @@
   </si>
   <si>
     <t>Rs. 674</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Lycra Tapered Fit Men'S Jeans - Charcoal</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Lycra Relaxed Fit Men'S Jeans - Mid Stone</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Lycra Tapered Fit Men'S Jeans - Stone</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Blend Slim Fit Mens Jeans - Dk Indigo</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Blend Slim Fit Men'S Jeans - Mid Stone</t>
+  </si>
+  <si>
+    <t>Levis</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Bootcut Fit Men'S Jeans - Blue</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Blend Karrot Fit Men'S Jeans - Tint</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Lycra Slim Fit Men'S Jeans - Black</t>
+  </si>
+  <si>
+    <t>Infuse</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Straight Fit Men'S Jeans - Tint</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Crop Fit Men'S Jeans - Mid Stone</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Skinny Fit Men'S Jeans - Grey</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Blend Slim Fit Men'S Jeans - Indigo</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Blend Tapered Fit Men'S Jeans - Charcoal</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Blend Karrot Fit Men'S Jeans - Ltgrey</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Lycra Tapered Fit Men'S Jeans - Tint</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Blend Slim Fit Men'S Jeans - Dk Indigo</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Regular Fit Men'S Jeans - Mid Stone</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Lycra Relaxed Fit Men'S Jeans - Charcoal</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Blend Regular Fit Men'S Joggers - Indigo</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Regular Fit Men'S Jeans - Tint</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Lycra Tapered Fit Men'S Jeans - Grey</t>
+  </si>
+  <si>
+    <t>Mid Wash Cotton Blend Regular Fit Men'S Joggers - Mid Stone</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>2199</t>
+  </si>
+  <si>
+    <t>1719</t>
+  </si>
+  <si>
+    <t>4299</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>3999</t>
+  </si>
+  <si>
+    <t>799</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1848,9 +1959,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2070,7 +2181,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="186.0" collapsed="true"/>
+    <col min="2" max="2" width="186" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -2568,9 +2679,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="67.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="68.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="68.7109375" collapsed="true"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="68.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="68.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6367,9 +6478,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,411 +7048,827 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A473A1B-FD98-45C8-9CC5-9C22DF3DB049}">
   <dimension ref="E1:F50"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>453</v>
+      </c>
+      <c r="F12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>442</v>
+      </c>
+      <c r="F20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>439</v>
+      </c>
+      <c r="F21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>451</v>
+      </c>
+      <c r="F22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>461</v>
+      </c>
+      <c r="F23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>453</v>
+      </c>
+      <c r="F25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>451</v>
+      </c>
+      <c r="F26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>464</v>
+      </c>
+      <c r="F27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>453</v>
+      </c>
+      <c r="F28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>458</v>
+      </c>
+      <c r="F29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F31" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>470</v>
+      </c>
+      <c r="F33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>451</v>
+      </c>
+      <c r="F35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>464</v>
+      </c>
+      <c r="F36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>445</v>
+      </c>
+      <c r="F37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>473</v>
+      </c>
+      <c r="F38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>464</v>
+      </c>
+      <c r="F39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>453</v>
+      </c>
+      <c r="F40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>447</v>
+      </c>
+      <c r="F41" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>451</v>
+      </c>
+      <c r="F42" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>475</v>
+      </c>
+      <c r="F43" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>445</v>
+      </c>
+      <c r="F44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>464</v>
+      </c>
+      <c r="F45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>477</v>
+      </c>
+      <c r="F46" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>451</v>
+      </c>
+      <c r="F47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>447</v>
+      </c>
+      <c r="F48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>453</v>
+      </c>
+      <c r="F49" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>479</v>
+      </c>
+      <c r="F50" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACCD2B6-314E-4422-9EEA-B68E2FBE8686}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="E1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="E2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="E3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
-        <v>447</v>
-      </c>
-      <c r="F8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>439</v>
-      </c>
-      <c r="F9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>451</v>
-      </c>
-      <c r="F11" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>453</v>
-      </c>
-      <c r="F12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>442</v>
-      </c>
-      <c r="F13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>439</v>
-      </c>
-      <c r="F14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>447</v>
-      </c>
-      <c r="F15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>440</v>
-      </c>
-      <c r="F16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>456</v>
-      </c>
-      <c r="F17" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>440</v>
-      </c>
-      <c r="F18" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>458</v>
-      </c>
-      <c r="F19" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>442</v>
-      </c>
-      <c r="F20" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>439</v>
-      </c>
-      <c r="F21" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>451</v>
-      </c>
-      <c r="F22" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>461</v>
-      </c>
-      <c r="F23" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>451</v>
-      </c>
-      <c r="F24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>453</v>
-      </c>
-      <c r="F25" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>451</v>
-      </c>
-      <c r="F26" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>464</v>
-      </c>
-      <c r="F27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>453</v>
-      </c>
-      <c r="F28" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
-        <v>458</v>
-      </c>
-      <c r="F29" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
-        <v>439</v>
-      </c>
-      <c r="F30" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>451</v>
-      </c>
-      <c r="F31" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>470</v>
-      </c>
-      <c r="F33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>439</v>
-      </c>
-      <c r="F34" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>451</v>
-      </c>
-      <c r="F35" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>464</v>
-      </c>
-      <c r="F36" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>445</v>
-      </c>
-      <c r="F37" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>473</v>
-      </c>
-      <c r="F38" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>464</v>
-      </c>
-      <c r="F39" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
-        <v>453</v>
-      </c>
-      <c r="F40" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
-        <v>447</v>
-      </c>
-      <c r="F41" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
-        <v>451</v>
-      </c>
-      <c r="F42" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
-        <v>475</v>
-      </c>
-      <c r="F43" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>445</v>
-      </c>
-      <c r="F44" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>464</v>
-      </c>
-      <c r="F45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>477</v>
-      </c>
-      <c r="F46" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>451</v>
-      </c>
-      <c r="F47" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>447</v>
-      </c>
-      <c r="F48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>453</v>
-      </c>
-      <c r="F49" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>479</v>
-      </c>
-      <c r="F50" t="s">
-        <v>481</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>482</v>
+      </c>
+      <c r="B13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>492</v>
+      </c>
+      <c r="B17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>494</v>
+      </c>
+      <c r="B20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>495</v>
+      </c>
+      <c r="B22" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>482</v>
+      </c>
+      <c r="B25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>497</v>
+      </c>
+      <c r="B26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>498</v>
+      </c>
+      <c r="B28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>482</v>
+      </c>
+      <c r="B29" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B30" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>482</v>
+      </c>
+      <c r="B31" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>500</v>
+      </c>
+      <c r="B32" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>492</v>
+      </c>
+      <c r="B33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>501</v>
+      </c>
+      <c r="B34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>482</v>
+      </c>
+      <c r="B35" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>502</v>
+      </c>
+      <c r="B36" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>482</v>
+      </c>
+      <c r="B37" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>482</v>
+      </c>
+      <c r="B39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>503</v>
+      </c>
+      <c r="B40" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>492</v>
+      </c>
+      <c r="B41" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>504</v>
+      </c>
+      <c r="B42" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>505</v>
+      </c>
+      <c r="B44" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>482</v>
+      </c>
+      <c r="B45" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>506</v>
+      </c>
+      <c r="B46" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>482</v>
+      </c>
+      <c r="B47" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>490</v>
+      </c>
+      <c r="B48" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B49" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>483</v>
+      </c>
+      <c r="B50" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
